--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,122 +531,122 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.07131067643798</v>
+        <v>4.102044999999999</v>
       </c>
       <c r="H2">
-        <v>4.07131067643798</v>
+        <v>12.306135</v>
       </c>
       <c r="I2">
-        <v>0.0581173611125016</v>
+        <v>0.04707023134627213</v>
       </c>
       <c r="J2">
-        <v>0.0581173611125016</v>
+        <v>0.04707023134627215</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.431303838872483</v>
+        <v>0.3606776666666667</v>
       </c>
       <c r="N2">
-        <v>0.431303838872483</v>
+        <v>1.082033</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2529709148430482</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2529709148430483</v>
       </c>
       <c r="Q2">
-        <v>1.755971923990226</v>
+        <v>1.479516019161667</v>
       </c>
       <c r="R2">
-        <v>1.755971923990226</v>
+        <v>13.315644172455</v>
       </c>
       <c r="S2">
-        <v>0.0581173611125016</v>
+        <v>0.01190739948554039</v>
       </c>
       <c r="T2">
-        <v>0.0581173611125016</v>
+        <v>0.01190739948554039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.06189849787793</v>
+        <v>4.102044999999999</v>
       </c>
       <c r="H3">
-        <v>6.06189849787793</v>
+        <v>12.306135</v>
       </c>
       <c r="I3">
-        <v>0.08653270949509899</v>
+        <v>0.04707023134627213</v>
       </c>
       <c r="J3">
-        <v>0.08653270949509899</v>
+        <v>0.04707023134627215</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.431303838872483</v>
+        <v>0.1984516666666667</v>
       </c>
       <c r="N3">
-        <v>0.431303838872483</v>
+        <v>0.595355</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1391893768548491</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1391893768548492</v>
       </c>
       <c r="Q3">
-        <v>2.61452009299009</v>
+        <v>0.8140576669916666</v>
       </c>
       <c r="R3">
-        <v>2.61452009299009</v>
+        <v>7.326519002924999</v>
       </c>
       <c r="S3">
-        <v>0.08653270949509899</v>
+        <v>0.006551676169501205</v>
       </c>
       <c r="T3">
-        <v>0.08653270949509899</v>
+        <v>0.006551676169501208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.2811437341029</v>
+        <v>4.102044999999999</v>
       </c>
       <c r="H4">
-        <v>29.2811437341029</v>
+        <v>12.306135</v>
       </c>
       <c r="I4">
-        <v>0.4179840202395926</v>
+        <v>0.04707023134627213</v>
       </c>
       <c r="J4">
-        <v>0.4179840202395926</v>
+        <v>0.04707023134627215</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.431303838872483</v>
+        <v>0.634239</v>
       </c>
       <c r="N4">
-        <v>0.431303838872483</v>
+        <v>1.902717</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.444840462515857</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.444840462515857</v>
       </c>
       <c r="Q4">
-        <v>12.62906969909553</v>
+        <v>2.601676918755</v>
       </c>
       <c r="R4">
-        <v>12.62906969909553</v>
+        <v>23.415092268795</v>
       </c>
       <c r="S4">
-        <v>0.4179840202395926</v>
+        <v>0.02093874348280408</v>
       </c>
       <c r="T4">
-        <v>0.4179840202395926</v>
+        <v>0.02093874348280409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,117 +717,1047 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.3072527560818</v>
+        <v>4.102044999999999</v>
       </c>
       <c r="H5">
-        <v>30.3072527560818</v>
+        <v>12.306135</v>
       </c>
       <c r="I5">
-        <v>0.4326315756119373</v>
+        <v>0.04707023134627213</v>
       </c>
       <c r="J5">
-        <v>0.4326315756119373</v>
+        <v>0.04707023134627215</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.431303838872483</v>
+        <v>0.232399</v>
       </c>
       <c r="N5">
-        <v>0.431303838872483</v>
+        <v>0.697197</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1629992457862456</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1629992457862456</v>
       </c>
       <c r="Q5">
-        <v>13.07163445937672</v>
+        <v>0.9533111559549998</v>
       </c>
       <c r="R5">
-        <v>13.07163445937672</v>
+        <v>8.579800403595</v>
       </c>
       <c r="S5">
-        <v>0.4326315756119373</v>
+        <v>0.007672412208426454</v>
       </c>
       <c r="T5">
-        <v>0.4326315756119373</v>
+        <v>0.007672412208426457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.083258333333333</v>
+      </c>
+      <c r="H6">
+        <v>18.249775</v>
+      </c>
+      <c r="I6">
+        <v>0.06980429934072831</v>
+      </c>
+      <c r="J6">
+        <v>0.06980429934072833</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3606776666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.082033</v>
+      </c>
+      <c r="O6">
+        <v>0.2529709148430482</v>
+      </c>
+      <c r="P6">
+        <v>0.2529709148430483</v>
+      </c>
+      <c r="Q6">
+        <v>2.194095421397222</v>
+      </c>
+      <c r="R6">
+        <v>19.746858792575</v>
+      </c>
+      <c r="S6">
+        <v>0.01765845746420203</v>
+      </c>
+      <c r="T6">
+        <v>0.01765845746420204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.083258333333333</v>
+      </c>
+      <c r="H7">
+        <v>18.249775</v>
+      </c>
+      <c r="I7">
+        <v>0.06980429934072831</v>
+      </c>
+      <c r="J7">
+        <v>0.06980429934072833</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1984516666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.595355</v>
+      </c>
+      <c r="O7">
+        <v>0.1391893768548491</v>
+      </c>
+      <c r="P7">
+        <v>0.1391893768548492</v>
+      </c>
+      <c r="Q7">
+        <v>1.207232755013889</v>
+      </c>
+      <c r="R7">
+        <v>10.865094795125</v>
+      </c>
+      <c r="S7">
+        <v>0.009716016927025329</v>
+      </c>
+      <c r="T7">
+        <v>0.009716016927025336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.083258333333333</v>
+      </c>
+      <c r="H8">
+        <v>18.249775</v>
+      </c>
+      <c r="I8">
+        <v>0.06980429934072831</v>
+      </c>
+      <c r="J8">
+        <v>0.06980429934072833</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.634239</v>
+      </c>
+      <c r="N8">
+        <v>1.902717</v>
+      </c>
+      <c r="O8">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="P8">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="Q8">
+        <v>3.858239682075</v>
+      </c>
+      <c r="R8">
+        <v>34.724157138675</v>
+      </c>
+      <c r="S8">
+        <v>0.03105177680432491</v>
+      </c>
+      <c r="T8">
+        <v>0.03105177680432492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.083258333333333</v>
+      </c>
+      <c r="H9">
+        <v>18.249775</v>
+      </c>
+      <c r="I9">
+        <v>0.06980429934072831</v>
+      </c>
+      <c r="J9">
+        <v>0.06980429934072833</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.232399</v>
+      </c>
+      <c r="N9">
+        <v>0.697197</v>
+      </c>
+      <c r="O9">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="P9">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="Q9">
+        <v>1.413743153408333</v>
+      </c>
+      <c r="R9">
+        <v>12.723688380675</v>
+      </c>
+      <c r="S9">
+        <v>0.01137804814517604</v>
+      </c>
+      <c r="T9">
+        <v>0.01137804814517604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.567358</v>
+      </c>
+      <c r="H10">
+        <v>88.70207400000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3392801349956059</v>
+      </c>
+      <c r="J10">
+        <v>0.3392801349956061</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3606776666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.082033</v>
+      </c>
+      <c r="O10">
+        <v>0.2529709148430482</v>
+      </c>
+      <c r="P10">
+        <v>0.2529709148430483</v>
+      </c>
+      <c r="Q10">
+        <v>10.664285692938</v>
+      </c>
+      <c r="R10">
+        <v>95.97857123644201</v>
+      </c>
+      <c r="S10">
+        <v>0.08582800613791133</v>
+      </c>
+      <c r="T10">
+        <v>0.08582800613791139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.567358</v>
+      </c>
+      <c r="H11">
+        <v>88.70207400000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3392801349956059</v>
+      </c>
+      <c r="J11">
+        <v>0.3392801349956061</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1984516666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.595355</v>
+      </c>
+      <c r="O11">
+        <v>0.1391893768548491</v>
+      </c>
+      <c r="P11">
+        <v>0.1391893768548492</v>
+      </c>
+      <c r="Q11">
+        <v>5.867691474030001</v>
+      </c>
+      <c r="R11">
+        <v>52.80922326627</v>
+      </c>
+      <c r="S11">
+        <v>0.04722419056926749</v>
+      </c>
+      <c r="T11">
+        <v>0.04722419056926751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.331655503997313</v>
-      </c>
-      <c r="H6">
-        <v>0.331655503997313</v>
-      </c>
-      <c r="I6">
-        <v>0.004734333540869533</v>
-      </c>
-      <c r="J6">
-        <v>0.004734333540869533</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.431303838872483</v>
-      </c>
-      <c r="N6">
-        <v>0.431303838872483</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.1430442920572292</v>
-      </c>
-      <c r="R6">
-        <v>0.1430442920572292</v>
-      </c>
-      <c r="S6">
-        <v>0.004734333540869533</v>
-      </c>
-      <c r="T6">
-        <v>0.004734333540869533</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.567358</v>
+      </c>
+      <c r="H12">
+        <v>88.70207400000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3392801349956059</v>
+      </c>
+      <c r="J12">
+        <v>0.3392801349956061</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.634239</v>
+      </c>
+      <c r="N12">
+        <v>1.902717</v>
+      </c>
+      <c r="O12">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="P12">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="Q12">
+        <v>18.752771570562</v>
+      </c>
+      <c r="R12">
+        <v>168.774944135058</v>
+      </c>
+      <c r="S12">
+        <v>0.1509255321738877</v>
+      </c>
+      <c r="T12">
+        <v>0.1509255321738878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.567358</v>
+      </c>
+      <c r="H13">
+        <v>88.70207400000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3392801349956059</v>
+      </c>
+      <c r="J13">
+        <v>0.3392801349956061</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.232399</v>
+      </c>
+      <c r="N13">
+        <v>0.697197</v>
+      </c>
+      <c r="O13">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="P13">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="Q13">
+        <v>6.871424431842001</v>
+      </c>
+      <c r="R13">
+        <v>61.84281988657801</v>
+      </c>
+      <c r="S13">
+        <v>0.05530240611453936</v>
+      </c>
+      <c r="T13">
+        <v>0.05530240611453939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>47.03120999999999</v>
+      </c>
+      <c r="H14">
+        <v>141.09363</v>
+      </c>
+      <c r="I14">
+        <v>0.5396747074191306</v>
+      </c>
+      <c r="J14">
+        <v>0.5396747074191307</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3606776666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.082033</v>
+      </c>
+      <c r="O14">
+        <v>0.2529709148430482</v>
+      </c>
+      <c r="P14">
+        <v>0.2529709148430483</v>
+      </c>
+      <c r="Q14">
+        <v>16.96310708331</v>
+      </c>
+      <c r="R14">
+        <v>152.66796374979</v>
+      </c>
+      <c r="S14">
+        <v>0.1365220044534718</v>
+      </c>
+      <c r="T14">
+        <v>0.1365220044534719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>47.03120999999999</v>
+      </c>
+      <c r="H15">
+        <v>141.09363</v>
+      </c>
+      <c r="I15">
+        <v>0.5396747074191306</v>
+      </c>
+      <c r="J15">
+        <v>0.5396747074191307</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1984516666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.595355</v>
+      </c>
+      <c r="O15">
+        <v>0.1391893768548491</v>
+      </c>
+      <c r="P15">
+        <v>0.1391893768548492</v>
+      </c>
+      <c r="Q15">
+        <v>9.333422009849999</v>
+      </c>
+      <c r="R15">
+        <v>84.00079808864999</v>
+      </c>
+      <c r="S15">
+        <v>0.07511698622999181</v>
+      </c>
+      <c r="T15">
+        <v>0.07511698622999184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>47.03120999999999</v>
+      </c>
+      <c r="H16">
+        <v>141.09363</v>
+      </c>
+      <c r="I16">
+        <v>0.5396747074191306</v>
+      </c>
+      <c r="J16">
+        <v>0.5396747074191307</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.634239</v>
+      </c>
+      <c r="N16">
+        <v>1.902717</v>
+      </c>
+      <c r="O16">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="P16">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="Q16">
+        <v>29.82902759919</v>
+      </c>
+      <c r="R16">
+        <v>268.46124839271</v>
+      </c>
+      <c r="S16">
+        <v>0.2400691464564358</v>
+      </c>
+      <c r="T16">
+        <v>0.2400691464564359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>47.03120999999999</v>
+      </c>
+      <c r="H17">
+        <v>141.09363</v>
+      </c>
+      <c r="I17">
+        <v>0.5396747074191306</v>
+      </c>
+      <c r="J17">
+        <v>0.5396747074191307</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.232399</v>
+      </c>
+      <c r="N17">
+        <v>0.697197</v>
+      </c>
+      <c r="O17">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="P17">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="Q17">
+        <v>10.93000617279</v>
+      </c>
+      <c r="R17">
+        <v>98.37005555510999</v>
+      </c>
+      <c r="S17">
+        <v>0.08796657027923105</v>
+      </c>
+      <c r="T17">
+        <v>0.08796657027923109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.363459</v>
+      </c>
+      <c r="H18">
+        <v>1.090377</v>
+      </c>
+      <c r="I18">
+        <v>0.004170626898262872</v>
+      </c>
+      <c r="J18">
+        <v>0.004170626898262873</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3606776666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.082033</v>
+      </c>
+      <c r="O18">
+        <v>0.2529709148430482</v>
+      </c>
+      <c r="P18">
+        <v>0.2529709148430483</v>
+      </c>
+      <c r="Q18">
+        <v>0.131091544049</v>
+      </c>
+      <c r="R18">
+        <v>1.179823896441</v>
+      </c>
+      <c r="S18">
+        <v>0.001055047301922583</v>
+      </c>
+      <c r="T18">
+        <v>0.001055047301922584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.363459</v>
+      </c>
+      <c r="H19">
+        <v>1.090377</v>
+      </c>
+      <c r="I19">
+        <v>0.004170626898262872</v>
+      </c>
+      <c r="J19">
+        <v>0.004170626898262873</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1984516666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.595355</v>
+      </c>
+      <c r="O19">
+        <v>0.1391893768548491</v>
+      </c>
+      <c r="P19">
+        <v>0.1391893768548492</v>
+      </c>
+      <c r="Q19">
+        <v>0.072129044315</v>
+      </c>
+      <c r="R19">
+        <v>0.6491613988349999</v>
+      </c>
+      <c r="S19">
+        <v>0.0005805069590632815</v>
+      </c>
+      <c r="T19">
+        <v>0.0005805069590632818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.363459</v>
+      </c>
+      <c r="H20">
+        <v>1.090377</v>
+      </c>
+      <c r="I20">
+        <v>0.004170626898262872</v>
+      </c>
+      <c r="J20">
+        <v>0.004170626898262873</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.634239</v>
+      </c>
+      <c r="N20">
+        <v>1.902717</v>
+      </c>
+      <c r="O20">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="P20">
+        <v>0.444840462515857</v>
+      </c>
+      <c r="Q20">
+        <v>0.230519872701</v>
+      </c>
+      <c r="R20">
+        <v>2.074678854309</v>
+      </c>
+      <c r="S20">
+        <v>0.00185526359840433</v>
+      </c>
+      <c r="T20">
+        <v>0.00185526359840433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.363459</v>
+      </c>
+      <c r="H21">
+        <v>1.090377</v>
+      </c>
+      <c r="I21">
+        <v>0.004170626898262872</v>
+      </c>
+      <c r="J21">
+        <v>0.004170626898262873</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.232399</v>
+      </c>
+      <c r="N21">
+        <v>0.697197</v>
+      </c>
+      <c r="O21">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="P21">
+        <v>0.1629992457862456</v>
+      </c>
+      <c r="Q21">
+        <v>0.08446750814099999</v>
+      </c>
+      <c r="R21">
+        <v>0.7602075732689999</v>
+      </c>
+      <c r="S21">
+        <v>0.0006798090388726771</v>
+      </c>
+      <c r="T21">
+        <v>0.0006798090388726773</v>
       </c>
     </row>
   </sheetData>
